--- a/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E94A1C-D021-4495-AD3C-C3416DDF4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3333D8-AC80-448D-BF26-54E9C4CEE0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="491">
   <si>
     <t>id</t>
   </si>
@@ -1171,316 +1171,331 @@
     <t>EA 23.107</t>
   </si>
   <si>
-    <t>flor</t>
-  </si>
-  <si>
-    <t>flor azul</t>
-  </si>
-  <si>
-    <t>flor amarela</t>
-  </si>
-  <si>
-    <t>flor branca</t>
-  </si>
-  <si>
-    <t>erva daninha</t>
-  </si>
-  <si>
-    <t>cogumelo</t>
-  </si>
-  <si>
-    <t>seixo</t>
-  </si>
-  <si>
-    <t>cristal</t>
-  </si>
-  <si>
-    <t>pedra</t>
-  </si>
-  <si>
-    <t>árvore de cogumelos</t>
-  </si>
-  <si>
-    <t>árvore de Natal</t>
-  </si>
-  <si>
-    <t>cacto</t>
-  </si>
-  <si>
-    <t>árvore palulu</t>
-  </si>
-  <si>
-    <t>minério</t>
-  </si>
-  <si>
-    <t>minério de gemas</t>
-  </si>
-  <si>
-    <t>lírio d'água</t>
-  </si>
-  <si>
-    <t>suporte de parede</t>
-  </si>
-  <si>
-    <t>telhado</t>
-  </si>
-  <si>
-    <t>janela</t>
-  </si>
-  <si>
-    <t>moldura de parede</t>
-  </si>
-  <si>
-    <t>estrada</t>
-  </si>
-  <si>
-    <t>telhado2</t>
-  </si>
-  <si>
-    <t>telhado3</t>
-  </si>
-  <si>
-    <t>telhado4</t>
-  </si>
-  <si>
-    <t>telhado5</t>
-  </si>
-  <si>
-    <t>telhado6</t>
-  </si>
-  <si>
-    <t>trilho</t>
-  </si>
-  <si>
-    <t>abismo</t>
-  </si>
-  <si>
-    <t>estrada de pedra</t>
-  </si>
-  <si>
-    <t>destroço</t>
-  </si>
-  <si>
-    <t>trigo</t>
-  </si>
-  <si>
-    <t>rabanete</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>repolho</t>
-  </si>
-  <si>
-    <t>tomate</t>
-  </si>
-  <si>
-    <t>cenoura</t>
-  </si>
-  <si>
-    <t>inhame</t>
-  </si>
-  <si>
-    <t>milho</t>
-  </si>
-  <si>
-    <t>estrada estreita</t>
-  </si>
-  <si>
-    <t>pedaço</t>
-  </si>
-  <si>
-    <t>ninho de pássaro</t>
-  </si>
-  <si>
-    <t>macieira</t>
-  </si>
-  <si>
-    <t>baga</t>
-  </si>
-  <si>
-    <t>grande pedra</t>
-  </si>
-  <si>
-    <t>osso</t>
-  </si>
-  <si>
-    <t>árvore de pau-rosa</t>
-  </si>
-  <si>
-    <t>abeto</t>
-  </si>
-  <si>
-    <t>cedro</t>
-  </si>
-  <si>
-    <t>bétula</t>
-  </si>
-  <si>
-    <t>pinheiro</t>
-  </si>
-  <si>
-    <t>carvalho</t>
-  </si>
-  <si>
-    <t>árvore queimada</t>
-  </si>
-  <si>
-    <t>musgo</t>
-  </si>
-  <si>
-    <t>arbusto de videira</t>
-  </si>
-  <si>
-    <t>árvore fóssil decomposta</t>
-  </si>
-  <si>
-    <t>árvore fóssil</t>
-  </si>
-  <si>
-    <t>grande árvore fóssil</t>
-  </si>
-  <si>
-    <t>fóssil decomposto</t>
-  </si>
-  <si>
-    <t>bolardo</t>
-  </si>
-  <si>
-    <t>peixe</t>
-  </si>
-  <si>
-    <t>árvore de mogno</t>
-  </si>
-  <si>
-    <t>árvore de acácia</t>
-  </si>
-  <si>
-    <t>chão rachado</t>
-  </si>
-  <si>
-    <t>toco</t>
-  </si>
-  <si>
-    <t>alga</t>
-  </si>
-  <si>
-    <t>concha</t>
-  </si>
-  <si>
-    <t>salgueiro</t>
-  </si>
-  <si>
-    <t>cerejeira</t>
-  </si>
-  <si>
-    <t>uva</t>
-  </si>
-  <si>
-    <t>monte de folhas caídas</t>
-  </si>
-  <si>
-    <t>Para teste</t>
-  </si>
-  <si>
-    <t>algodão</t>
-  </si>
-  <si>
-    <t>remanescente</t>
-  </si>
-  <si>
-    <t>monte</t>
-  </si>
-  <si>
-    <t>arroz</t>
-  </si>
-  <si>
-    <t>linha branca</t>
-  </si>
-  <si>
-    <t>fruta arco-íris</t>
-  </si>
-  <si>
-    <t>rocha de sal</t>
-  </si>
-  <si>
-    <t>borda</t>
-  </si>
-  <si>
-    <t>estalagmite</t>
-  </si>
-  <si>
-    <t>árvore decomposta</t>
-  </si>
-  <si>
-    <t>parede decomposta</t>
-  </si>
-  <si>
-    <t>tanchagem</t>
-  </si>
-  <si>
-    <t>rocha enorme</t>
-  </si>
-  <si>
-    <t>rocha de enxofre</t>
-  </si>
-  <si>
-    <t>bambu</t>
-  </si>
-  <si>
-    <t>pasto</t>
-  </si>
-  <si>
-    <t>químicos</t>
-  </si>
-  <si>
-    <t>grama prateada</t>
-  </si>
-  <si>
-    <t>detritos</t>
-  </si>
-  <si>
-    <t>esteira transportadora</t>
-  </si>
-  <si>
-    <t>fragmentos</t>
-  </si>
-  <si>
-    <t>bananeira</t>
-  </si>
-  <si>
-    <t>laranjeira</t>
-  </si>
-  <si>
-    <t>pereira</t>
-  </si>
-  <si>
-    <t>grama vermelha</t>
-  </si>
-  <si>
-    <t>grama azul</t>
-  </si>
-  <si>
-    <t>grama roxa</t>
-  </si>
-  <si>
-    <t>árvore de feywood</t>
-  </si>
-  <si>
-    <t>árvore de coralwood</t>
-  </si>
-  <si>
-    <t>samambaia</t>
-  </si>
-  <si>
-    <t>café</t>
-  </si>
-  <si>
-    <t>tabaco</t>
-  </si>
-  <si>
-    <t>telhado7</t>
+    <t xml:space="preserve">Momiji  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor Azul  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor Amarela  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor Branca  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erva Daninha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogumelo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafflesia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seixo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedra  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore de Cogumelos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore de Natal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cacto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore Palulu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minério  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minério de Gemas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lírio-d'Água  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte de Parede  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janela  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldura de Parede  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrada  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trilho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abismo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrada de Pedra  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destroço  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabanete  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repolho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomate  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenoura  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhame  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrada Estreita  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedaço  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninho de Pássaro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baga  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande Pedra  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore de Pau-Rosa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abeto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bétula  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinheiro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carvalho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore Queimada  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musgo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbusto de Videira  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore Fóssil Decomposta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore Fóssil  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande Árvore Fóssil  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fóssil Decomposto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolardo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore de Mogno  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore de Acácia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toco  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alga  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salgueiro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerejeira  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uva  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monte de Folhas Caídas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Teste  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algodão  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remanescente  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monte  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroz  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha Branca  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruta Arco-Íris  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocha de Sal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estalagmite  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore Decomposta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parede Decomposta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanchagem  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocha Enorme  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocha de Enxofre  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Químicos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grama Prateada  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detritos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteira Transportadora  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragmentos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bananeira  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laranjeira  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pereira  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grama Vermelha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grama Azul  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grama Roxa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árvore de Feywood  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samambaia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabaco  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 7  </t>
+  </si>
+  <si>
+    <t>Crime ou Crim</t>
+  </si>
+  <si>
+    <t>Árvore de Maçã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piso Rachado  </t>
+  </si>
+  <si>
+    <t>Árvore de Madeira de Coral</t>
   </si>
 </sst>
 </file>
@@ -1861,13 +1876,17 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1904,7 +1923,7 @@
         <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1921,7 +1940,7 @@
         <v>354</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1938,7 +1957,7 @@
         <v>354</v>
       </c>
       <c r="C5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1955,7 +1974,7 @@
         <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1972,7 +1991,7 @@
         <v>354</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -1989,7 +2008,7 @@
         <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2006,7 +2025,7 @@
         <v>354</v>
       </c>
       <c r="C9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -2023,7 +2042,7 @@
         <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2040,7 +2059,7 @@
         <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -2057,7 +2076,7 @@
         <v>354</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -2074,7 +2093,7 @@
         <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -2091,7 +2110,7 @@
         <v>354</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -2108,7 +2127,7 @@
         <v>354</v>
       </c>
       <c r="C15" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
@@ -2125,7 +2144,7 @@
         <v>354</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -2142,7 +2161,7 @@
         <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>487</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -2159,7 +2178,7 @@
         <v>354</v>
       </c>
       <c r="C18" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
@@ -2176,7 +2195,7 @@
         <v>354</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
@@ -2193,7 +2212,7 @@
         <v>354</v>
       </c>
       <c r="C20" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -2210,7 +2229,7 @@
         <v>354</v>
       </c>
       <c r="C21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
@@ -2227,7 +2246,7 @@
         <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -2244,7 +2263,7 @@
         <v>356</v>
       </c>
       <c r="C23" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -2261,7 +2280,7 @@
         <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -2278,7 +2297,7 @@
         <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>399</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -2295,7 +2314,7 @@
         <v>354</v>
       </c>
       <c r="C26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
@@ -2312,7 +2331,7 @@
         <v>357</v>
       </c>
       <c r="C27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
@@ -2329,7 +2348,7 @@
         <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -2346,7 +2365,7 @@
         <v>354</v>
       </c>
       <c r="C29" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>
@@ -2363,7 +2382,7 @@
         <v>354</v>
       </c>
       <c r="C30" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="D30" t="s">
         <v>87</v>
@@ -2380,7 +2399,7 @@
         <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
@@ -2397,7 +2416,7 @@
         <v>354</v>
       </c>
       <c r="C32" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -2414,7 +2433,7 @@
         <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>
@@ -2431,7 +2450,7 @@
         <v>354</v>
       </c>
       <c r="C34" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -2448,7 +2467,7 @@
         <v>354</v>
       </c>
       <c r="C35" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D35" t="s">
         <v>102</v>
@@ -2465,7 +2484,7 @@
         <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D36" t="s">
         <v>105</v>
@@ -2482,7 +2501,7 @@
         <v>358</v>
       </c>
       <c r="C37" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D37" t="s">
         <v>108</v>
@@ -2499,7 +2518,7 @@
         <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
@@ -2516,7 +2535,7 @@
         <v>354</v>
       </c>
       <c r="C39" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D39" t="s">
         <v>114</v>
@@ -2533,7 +2552,7 @@
         <v>354</v>
       </c>
       <c r="C40" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
@@ -2550,7 +2569,7 @@
         <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D41" t="s">
         <v>120</v>
@@ -2567,7 +2586,7 @@
         <v>354</v>
       </c>
       <c r="C42" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -2584,7 +2603,7 @@
         <v>359</v>
       </c>
       <c r="C43" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -2601,7 +2620,7 @@
         <v>359</v>
       </c>
       <c r="C44" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D44" t="s">
         <v>129</v>
@@ -2618,7 +2637,7 @@
         <v>359</v>
       </c>
       <c r="C45" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
@@ -2635,7 +2654,7 @@
         <v>354</v>
       </c>
       <c r="C46" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
@@ -2652,7 +2671,7 @@
         <v>354</v>
       </c>
       <c r="C47" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D47" t="s">
         <v>137</v>
@@ -2669,7 +2688,7 @@
         <v>354</v>
       </c>
       <c r="C48" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D48" t="s">
         <v>140</v>
@@ -2686,7 +2705,7 @@
         <v>354</v>
       </c>
       <c r="C49" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>
@@ -2703,7 +2722,7 @@
         <v>354</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -2720,7 +2739,7 @@
         <v>354</v>
       </c>
       <c r="C51" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D51" t="s">
         <v>146</v>
@@ -2737,7 +2756,7 @@
         <v>360</v>
       </c>
       <c r="C52" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="D52" t="s">
         <v>149</v>
@@ -2754,7 +2773,7 @@
         <v>355</v>
       </c>
       <c r="C53" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D53" t="s">
         <v>152</v>
@@ -2771,7 +2790,7 @@
         <v>354</v>
       </c>
       <c r="C54" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D54" t="s">
         <v>155</v>
@@ -2788,7 +2807,7 @@
         <v>354</v>
       </c>
       <c r="C55" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D55" t="s">
         <v>158</v>
@@ -2805,7 +2824,7 @@
         <v>354</v>
       </c>
       <c r="C56" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D56" t="s">
         <v>161</v>
@@ -2822,7 +2841,7 @@
         <v>354</v>
       </c>
       <c r="C57" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D57" t="s">
         <v>164</v>
@@ -2839,7 +2858,7 @@
         <v>354</v>
       </c>
       <c r="C58" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D58" t="s">
         <v>167</v>
@@ -2856,7 +2875,7 @@
         <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D59" t="s">
         <v>170</v>
@@ -2873,7 +2892,7 @@
         <v>354</v>
       </c>
       <c r="C60" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D60" t="s">
         <v>173</v>
@@ -2890,7 +2909,7 @@
         <v>354</v>
       </c>
       <c r="C61" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D61" t="s">
         <v>176</v>
@@ -2907,7 +2926,7 @@
         <v>354</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D62" t="s">
         <v>179</v>
@@ -2924,7 +2943,7 @@
         <v>361</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D63" t="s">
         <v>182</v>
@@ -2941,7 +2960,7 @@
         <v>354</v>
       </c>
       <c r="C64" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D64" t="s">
         <v>185</v>
@@ -2958,7 +2977,7 @@
         <v>354</v>
       </c>
       <c r="C65" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D65" t="s">
         <v>188</v>
@@ -2975,7 +2994,7 @@
         <v>354</v>
       </c>
       <c r="C66" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D66" t="s">
         <v>191</v>
@@ -2992,7 +3011,7 @@
         <v>354</v>
       </c>
       <c r="C67" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D67" t="s">
         <v>194</v>
@@ -3009,7 +3028,7 @@
         <v>354</v>
       </c>
       <c r="C68" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D68" t="s">
         <v>197</v>
@@ -3026,7 +3045,7 @@
         <v>354</v>
       </c>
       <c r="C69" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D69" t="s">
         <v>200</v>
@@ -3043,7 +3062,7 @@
         <v>354</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="D70" t="s">
         <v>96</v>
@@ -3060,7 +3079,7 @@
         <v>354</v>
       </c>
       <c r="C71" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D71" t="s">
         <v>205</v>
@@ -3077,7 +3096,7 @@
         <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D72" t="s">
         <v>208</v>
@@ -3094,7 +3113,7 @@
         <v>354</v>
       </c>
       <c r="C73" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D73" t="s">
         <v>211</v>
@@ -3111,7 +3130,7 @@
         <v>354</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="D74" t="s">
         <v>214</v>
@@ -3128,7 +3147,7 @@
         <v>354</v>
       </c>
       <c r="C75" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D75" t="s">
         <v>217</v>
@@ -3145,7 +3164,7 @@
         <v>354</v>
       </c>
       <c r="C76" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D76" t="s">
         <v>220</v>
@@ -3162,7 +3181,7 @@
         <v>354</v>
       </c>
       <c r="C77" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D77" t="s">
         <v>223</v>
@@ -3179,7 +3198,7 @@
         <v>354</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>442</v>
       </c>
       <c r="D78" t="s">
         <v>226</v>
@@ -3196,7 +3215,7 @@
         <v>354</v>
       </c>
       <c r="C79" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D79" t="s">
         <v>229</v>
@@ -3213,7 +3232,7 @@
         <v>354</v>
       </c>
       <c r="C80" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D80" t="s">
         <v>232</v>
@@ -3230,7 +3249,7 @@
         <v>359</v>
       </c>
       <c r="C81" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D81" t="s">
         <v>235</v>
@@ -3247,7 +3266,7 @@
         <v>354</v>
       </c>
       <c r="C82" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D82" t="s">
         <v>238</v>
@@ -3264,7 +3283,7 @@
         <v>354</v>
       </c>
       <c r="C83" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D83" t="s">
         <v>241</v>
@@ -3281,7 +3300,7 @@
         <v>362</v>
       </c>
       <c r="C84" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D84" t="s">
         <v>243</v>
@@ -3298,7 +3317,7 @@
         <v>362</v>
       </c>
       <c r="C85" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D85" t="s">
         <v>246</v>
@@ -3315,7 +3334,7 @@
         <v>363</v>
       </c>
       <c r="C86" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D86" t="s">
         <v>108</v>
@@ -3332,7 +3351,7 @@
         <v>358</v>
       </c>
       <c r="C87" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D87" t="s">
         <v>250</v>
@@ -3349,7 +3368,7 @@
         <v>358</v>
       </c>
       <c r="C88" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D88" t="s">
         <v>108</v>
@@ -3366,7 +3385,7 @@
         <v>358</v>
       </c>
       <c r="C89" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D89" t="s">
         <v>108</v>
@@ -3383,7 +3402,7 @@
         <v>358</v>
       </c>
       <c r="C90" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D90" t="s">
         <v>108</v>
@@ -3400,7 +3419,7 @@
         <v>364</v>
       </c>
       <c r="C91" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D91" t="s">
         <v>256</v>
@@ -3417,7 +3436,7 @@
         <v>365</v>
       </c>
       <c r="C92" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D92" t="s">
         <v>259</v>
@@ -3434,7 +3453,7 @@
         <v>366</v>
       </c>
       <c r="C93" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D93" t="s">
         <v>262</v>
@@ -3451,7 +3470,7 @@
         <v>366</v>
       </c>
       <c r="C94" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D94" t="s">
         <v>265</v>
@@ -3468,7 +3487,7 @@
         <v>367</v>
       </c>
       <c r="C95" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D95" t="s">
         <v>268</v>
@@ -3485,7 +3504,7 @@
         <v>368</v>
       </c>
       <c r="C96" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D96" t="s">
         <v>271</v>
@@ -3502,7 +3521,7 @@
         <v>369</v>
       </c>
       <c r="C97" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D97" t="s">
         <v>274</v>
@@ -3519,7 +3538,7 @@
         <v>369</v>
       </c>
       <c r="C98" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D98" t="s">
         <v>277</v>
@@ -3536,7 +3555,7 @@
         <v>357</v>
       </c>
       <c r="C99" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D99" t="s">
         <v>277</v>
@@ -3553,7 +3572,7 @@
         <v>357</v>
       </c>
       <c r="C100" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D100" t="s">
         <v>99</v>
@@ -3570,7 +3589,7 @@
         <v>357</v>
       </c>
       <c r="C101" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D101" t="s">
         <v>99</v>
@@ -3587,7 +3606,7 @@
         <v>357</v>
       </c>
       <c r="C102" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D102" t="s">
         <v>283</v>
@@ -3604,7 +3623,7 @@
         <v>357</v>
       </c>
       <c r="C103" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D103" t="s">
         <v>286</v>
@@ -3621,7 +3640,7 @@
         <v>357</v>
       </c>
       <c r="C104" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D104" t="s">
         <v>78</v>
@@ -3638,7 +3657,7 @@
         <v>357</v>
       </c>
       <c r="C105" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D105" t="s">
         <v>290</v>
@@ -3655,7 +3674,7 @@
         <v>357</v>
       </c>
       <c r="C106" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D106" t="s">
         <v>293</v>
@@ -3672,7 +3691,7 @@
         <v>370</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
+        <v>463</v>
       </c>
       <c r="D107" t="s">
         <v>296</v>
@@ -3689,7 +3708,7 @@
         <v>371</v>
       </c>
       <c r="C108" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D108" t="s">
         <v>299</v>
@@ -3706,7 +3725,7 @@
         <v>372</v>
       </c>
       <c r="C109" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D109" t="s">
         <v>78</v>
@@ -3723,7 +3742,7 @@
         <v>373</v>
       </c>
       <c r="C110" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D110" t="s">
         <v>303</v>
@@ -3740,7 +3759,7 @@
         <v>372</v>
       </c>
       <c r="C111" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D111" t="s">
         <v>306</v>
@@ -3757,7 +3776,7 @@
         <v>374</v>
       </c>
       <c r="C112" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D112" t="s">
         <v>309</v>
@@ -3774,7 +3793,7 @@
         <v>373</v>
       </c>
       <c r="C113" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D113" t="s">
         <v>312</v>
@@ -3791,7 +3810,7 @@
         <v>373</v>
       </c>
       <c r="C114" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D114" t="s">
         <v>315</v>
@@ -3808,7 +3827,7 @@
         <v>360</v>
       </c>
       <c r="C115" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D115" t="s">
         <v>318</v>
@@ -3825,7 +3844,7 @@
         <v>360</v>
       </c>
       <c r="C116" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D116" t="s">
         <v>321</v>
@@ -3842,7 +3861,7 @@
         <v>360</v>
       </c>
       <c r="C117" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D117" t="s">
         <v>324</v>
@@ -3859,7 +3878,7 @@
         <v>375</v>
       </c>
       <c r="C118" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D118" t="s">
         <v>327</v>
@@ -3876,7 +3895,7 @@
         <v>375</v>
       </c>
       <c r="C119" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D119" t="s">
         <v>330</v>
@@ -3893,7 +3912,7 @@
         <v>376</v>
       </c>
       <c r="C120" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D120" t="s">
         <v>333</v>
@@ -3910,7 +3929,7 @@
         <v>377</v>
       </c>
       <c r="C121" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D121" t="s">
         <v>336</v>
@@ -3927,7 +3946,7 @@
         <v>378</v>
       </c>
       <c r="C122" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D122" t="s">
         <v>339</v>
@@ -3944,7 +3963,7 @@
         <v>379</v>
       </c>
       <c r="C123" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D123" t="s">
         <v>21</v>
@@ -3961,7 +3980,7 @@
         <v>379</v>
       </c>
       <c r="C124" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D124" t="s">
         <v>343</v>
@@ -3978,7 +3997,7 @@
         <v>380</v>
       </c>
       <c r="C125" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D125" t="s">
         <v>346</v>
@@ -3995,7 +4014,7 @@
         <v>380</v>
       </c>
       <c r="C126" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D126" t="s">
         <v>349</v>
@@ -4012,7 +4031,7 @@
         <v>381</v>
       </c>
       <c r="C127" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D127" t="s">
         <v>352</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3333D8-AC80-448D-BF26-54E9C4CEE0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88B85BD-9956-482B-B193-2CC924842ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,9 +1486,6 @@
     <t xml:space="preserve">Telhado 7  </t>
   </si>
   <si>
-    <t>Crime ou Crim</t>
-  </si>
-  <si>
     <t>Árvore de Maçã</t>
   </si>
   <si>
@@ -1496,6 +1493,9 @@
   </si>
   <si>
     <t>Árvore de Madeira de Coral</t>
+  </si>
+  <si>
+    <t>Crim</t>
   </si>
 </sst>
 </file>
@@ -1876,8 +1876,8 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2161,7 @@
         <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -2756,7 +2756,7 @@
         <v>360</v>
       </c>
       <c r="C52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D52" t="s">
         <v>149</v>
@@ -3130,7 +3130,7 @@
         <v>354</v>
       </c>
       <c r="C74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D74" t="s">
         <v>214</v>
@@ -3946,7 +3946,7 @@
         <v>378</v>
       </c>
       <c r="C122" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D122" t="s">
         <v>339</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88B85BD-9956-482B-B193-2CC924842ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA9258-AB1E-4E10-8FC1-B3F7C68F2894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1876,8 +1876,8 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,2131 +1917,2135 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>354</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>354</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
         <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>354</v>
       </c>
       <c r="C12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
         <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>476</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>394</v>
+        <v>489</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C17" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>354</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
         <v>354</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
         <v>354</v>
       </c>
       <c r="C21" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
         <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
         <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
         <v>354</v>
       </c>
       <c r="C29" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C30" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>483</v>
+        <v>395</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C32" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>346</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
         <v>354</v>
       </c>
       <c r="C34" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s">
         <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C37" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
         <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="B39" t="s">
         <v>354</v>
       </c>
       <c r="C39" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C40" t="s">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C42" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C43" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C44" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C46" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="B47" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C47" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C48" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
         <v>354</v>
       </c>
       <c r="C49" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
         <v>354</v>
       </c>
       <c r="C50" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
         <v>354</v>
       </c>
       <c r="C54" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
         <v>354</v>
       </c>
       <c r="C55" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
         <v>354</v>
       </c>
       <c r="C56" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
         <v>354</v>
       </c>
       <c r="C57" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>354</v>
       </c>
       <c r="C58" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
         <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
         <v>354</v>
       </c>
       <c r="C60" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="B61" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C61" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
         <v>354</v>
       </c>
       <c r="C62" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
       <c r="B63" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C63" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>315</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C64" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="E64" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C65" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C66" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="E66" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C67" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="E67" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C68" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
         <v>354</v>
       </c>
       <c r="C69" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
         <v>354</v>
       </c>
       <c r="C70" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C71" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="D73" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="E73" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C74" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C75" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C76" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
         <v>354</v>
       </c>
       <c r="C77" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="D77" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
         <v>354</v>
       </c>
       <c r="C78" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C79" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C81" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>354</v>
       </c>
       <c r="C82" t="s">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C83" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C84" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E84" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C85" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="D85" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C86" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C87" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B88" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="B89" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C89" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="E89" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B90" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C91" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="E91" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C92" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="D92" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C93" t="s">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="B94" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C94" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C95" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D95" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C96" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="D96" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="B97" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C97" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="E97" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B98" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C98" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C99" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C100" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D100" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B101" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C101" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="D101" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="E101" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C102" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="D102" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
-        <v>284</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
         <v>357</v>
       </c>
       <c r="C103" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E103" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B104" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C104" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="D104" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="E104" t="s">
-        <v>79</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B105" t="s">
         <v>357</v>
       </c>
       <c r="C105" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D105" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E105" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="B106" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C106" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="D106" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="B107" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C107" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D107" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="E107" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="B108" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C108" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="E108" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C109" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D109" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E109" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="B110" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="E110" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B111" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C111" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D111" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="E111" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="C112" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D112" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="E112" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C113" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D113" t="s">
-        <v>312</v>
+        <v>84</v>
       </c>
       <c r="E113" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
       <c r="B114" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C114" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="D114" t="s">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="E114" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="B115" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C115" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D115" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="E115" t="s">
-        <v>319</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D116" t="s">
-        <v>321</v>
+        <v>93</v>
       </c>
       <c r="E116" t="s">
-        <v>322</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C117" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D117" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c r="E117" t="s">
-        <v>325</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C118" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D118" t="s">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="E118" t="s">
-        <v>328</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B119" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C119" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D119" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="E119" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>332</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="D120" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="E120" t="s">
-        <v>334</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>335</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C121" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="D121" t="s">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="E121" t="s">
-        <v>337</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>338</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C122" t="s">
-        <v>489</v>
+        <v>412</v>
       </c>
       <c r="D122" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>340</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>341</v>
+        <v>110</v>
       </c>
       <c r="B123" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="C123" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="E123" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="C124" t="s">
-        <v>477</v>
+        <v>404</v>
       </c>
       <c r="D124" t="s">
-        <v>343</v>
+        <v>99</v>
       </c>
       <c r="E124" t="s">
-        <v>344</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="B125" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C125" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="D125" t="s">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="E125" t="s">
-        <v>347</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C126" t="s">
-        <v>479</v>
+        <v>404</v>
       </c>
       <c r="D126" t="s">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="E126" t="s">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C127" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="D127" t="s">
-        <v>352</v>
+        <v>235</v>
       </c>
       <c r="E127" t="s">
-        <v>353</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H127">
+      <sortCondition ref="C2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA9258-AB1E-4E10-8FC1-B3F7C68F2894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816A7298-0F9F-4B5D-827E-613D2FAD485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,9 +1291,6 @@
     <t xml:space="preserve">Osso  </t>
   </si>
   <si>
-    <t xml:space="preserve">Árvore de Pau-Rosa  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Abeto  </t>
   </si>
   <si>
@@ -1496,6 +1493,9 @@
   </si>
   <si>
     <t>Crim</t>
+  </si>
+  <si>
+    <t>Roseira</t>
   </si>
 </sst>
 </file>
@@ -1876,8 +1876,8 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1923,7 @@
         <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3" t="s">
         <v>164</v>
@@ -1957,7 +1957,7 @@
         <v>354</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D5" t="s">
         <v>220</v>
@@ -1974,7 +1974,7 @@
         <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
         <v>243</v>
@@ -1991,7 +1991,7 @@
         <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
         <v>296</v>
@@ -2008,7 +2008,7 @@
         <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D8" t="s">
         <v>185</v>
@@ -2025,7 +2025,7 @@
         <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
         <v>256</v>
@@ -2042,7 +2042,7 @@
         <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D10" t="s">
         <v>211</v>
@@ -2110,7 +2110,7 @@
         <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D14" t="s">
         <v>336</v>
@@ -2127,7 +2127,7 @@
         <v>360</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D15" t="s">
         <v>149</v>
@@ -2144,7 +2144,7 @@
         <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D16" t="s">
         <v>339</v>
@@ -2161,7 +2161,7 @@
         <v>354</v>
       </c>
       <c r="C17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D17" t="s">
         <v>208</v>
@@ -2195,7 +2195,7 @@
         <v>354</v>
       </c>
       <c r="C19" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="D19" t="s">
         <v>161</v>
@@ -2212,7 +2212,7 @@
         <v>369</v>
       </c>
       <c r="C20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D20" t="s">
         <v>274</v>
@@ -2229,7 +2229,7 @@
         <v>354</v>
       </c>
       <c r="C21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D21" t="s">
         <v>191</v>
@@ -2246,7 +2246,7 @@
         <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D22" t="s">
         <v>188</v>
@@ -2280,7 +2280,7 @@
         <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D24" t="s">
         <v>179</v>
@@ -2314,7 +2314,7 @@
         <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D26" t="s">
         <v>293</v>
@@ -2331,7 +2331,7 @@
         <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D27" t="s">
         <v>318</v>
@@ -2348,7 +2348,7 @@
         <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D28" t="s">
         <v>170</v>
@@ -2365,7 +2365,7 @@
         <v>354</v>
       </c>
       <c r="C29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D29" t="s">
         <v>200</v>
@@ -2382,7 +2382,7 @@
         <v>367</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D30" t="s">
         <v>268</v>
@@ -2416,7 +2416,7 @@
         <v>380</v>
       </c>
       <c r="C32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D32" t="s">
         <v>346</v>
@@ -2433,7 +2433,7 @@
         <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D33" t="s">
         <v>176</v>
@@ -2450,7 +2450,7 @@
         <v>354</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D34" t="s">
         <v>167</v>
@@ -2484,7 +2484,7 @@
         <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D36" t="s">
         <v>232</v>
@@ -2518,7 +2518,7 @@
         <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D38" t="s">
         <v>223</v>
@@ -2535,7 +2535,7 @@
         <v>354</v>
       </c>
       <c r="C39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D39" t="s">
         <v>226</v>
@@ -2552,7 +2552,7 @@
         <v>355</v>
       </c>
       <c r="C40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D40" t="s">
         <v>49</v>
@@ -2688,7 +2688,7 @@
         <v>374</v>
       </c>
       <c r="C48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D48" t="s">
         <v>309</v>
@@ -2739,7 +2739,7 @@
         <v>368</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D51" t="s">
         <v>271</v>
@@ -2756,7 +2756,7 @@
         <v>373</v>
       </c>
       <c r="C52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D52" t="s">
         <v>312</v>
@@ -2926,7 +2926,7 @@
         <v>354</v>
       </c>
       <c r="C62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D62" t="s">
         <v>197</v>
@@ -2943,7 +2943,7 @@
         <v>373</v>
       </c>
       <c r="C63" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D63" t="s">
         <v>315</v>
@@ -2960,7 +2960,7 @@
         <v>366</v>
       </c>
       <c r="C64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D64" t="s">
         <v>262</v>
@@ -2977,7 +2977,7 @@
         <v>375</v>
       </c>
       <c r="C65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D65" t="s">
         <v>330</v>
@@ -2994,7 +2994,7 @@
         <v>372</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D66" t="s">
         <v>306</v>
@@ -3011,7 +3011,7 @@
         <v>376</v>
       </c>
       <c r="C67" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D67" t="s">
         <v>333</v>
@@ -3028,7 +3028,7 @@
         <v>375</v>
       </c>
       <c r="C68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D68" t="s">
         <v>327</v>
@@ -3045,7 +3045,7 @@
         <v>354</v>
       </c>
       <c r="C69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D69" t="s">
         <v>194</v>
@@ -3113,7 +3113,7 @@
         <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D73" t="s">
         <v>321</v>
@@ -3130,7 +3130,7 @@
         <v>365</v>
       </c>
       <c r="C74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D74" t="s">
         <v>259</v>
@@ -3283,7 +3283,7 @@
         <v>358</v>
       </c>
       <c r="C83" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D83" t="s">
         <v>250</v>
@@ -3300,7 +3300,7 @@
         <v>354</v>
       </c>
       <c r="C84" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D84" t="s">
         <v>238</v>
@@ -3317,7 +3317,7 @@
         <v>361</v>
       </c>
       <c r="C85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D85" t="s">
         <v>182</v>
@@ -3368,7 +3368,7 @@
         <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D88" t="s">
         <v>241</v>
@@ -3385,7 +3385,7 @@
         <v>369</v>
       </c>
       <c r="C89" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D89" t="s">
         <v>277</v>
@@ -3402,7 +3402,7 @@
         <v>357</v>
       </c>
       <c r="C90" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D90" t="s">
         <v>277</v>
@@ -3419,7 +3419,7 @@
         <v>371</v>
       </c>
       <c r="C91" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D91" t="s">
         <v>299</v>
@@ -3470,7 +3470,7 @@
         <v>354</v>
       </c>
       <c r="C94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D94" t="s">
         <v>205</v>
@@ -3487,7 +3487,7 @@
         <v>360</v>
       </c>
       <c r="C95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D95" t="s">
         <v>324</v>
@@ -3504,7 +3504,7 @@
         <v>354</v>
       </c>
       <c r="C96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D96" t="s">
         <v>173</v>
@@ -3521,7 +3521,7 @@
         <v>354</v>
       </c>
       <c r="C97" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D97" t="s">
         <v>214</v>
@@ -3538,7 +3538,7 @@
         <v>373</v>
       </c>
       <c r="C98" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D98" t="s">
         <v>303</v>
@@ -3589,7 +3589,7 @@
         <v>362</v>
       </c>
       <c r="C101" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D101" t="s">
         <v>246</v>
@@ -3623,7 +3623,7 @@
         <v>357</v>
       </c>
       <c r="C103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D103" t="s">
         <v>290</v>
@@ -3640,7 +3640,7 @@
         <v>366</v>
       </c>
       <c r="C104" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D104" t="s">
         <v>265</v>
@@ -3657,7 +3657,7 @@
         <v>357</v>
       </c>
       <c r="C105" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D105" t="s">
         <v>286</v>
@@ -3674,7 +3674,7 @@
         <v>354</v>
       </c>
       <c r="C106" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D106" t="s">
         <v>229</v>
@@ -3691,7 +3691,7 @@
         <v>379</v>
       </c>
       <c r="C107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D107" t="s">
         <v>343</v>
@@ -3742,7 +3742,7 @@
         <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D110" t="s">
         <v>349</v>
@@ -3759,7 +3759,7 @@
         <v>357</v>
       </c>
       <c r="C111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D111" t="s">
         <v>283</v>
@@ -3776,7 +3776,7 @@
         <v>354</v>
       </c>
       <c r="C112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D112" t="s">
         <v>72</v>
@@ -3793,7 +3793,7 @@
         <v>354</v>
       </c>
       <c r="C113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D113" t="s">
         <v>84</v>
@@ -3810,7 +3810,7 @@
         <v>354</v>
       </c>
       <c r="C114" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D114" t="s">
         <v>87</v>
@@ -3827,7 +3827,7 @@
         <v>354</v>
       </c>
       <c r="C115" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D115" t="s">
         <v>90</v>
@@ -3844,7 +3844,7 @@
         <v>354</v>
       </c>
       <c r="C116" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D116" t="s">
         <v>93</v>
@@ -3861,7 +3861,7 @@
         <v>354</v>
       </c>
       <c r="C117" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D117" t="s">
         <v>96</v>
@@ -3878,7 +3878,7 @@
         <v>354</v>
       </c>
       <c r="C118" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D118" t="s">
         <v>96</v>
@@ -3895,7 +3895,7 @@
         <v>381</v>
       </c>
       <c r="C119" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D119" t="s">
         <v>352</v>
@@ -3929,7 +3929,7 @@
         <v>354</v>
       </c>
       <c r="C121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D121" t="s">
         <v>217</v>
@@ -4031,7 +4031,7 @@
         <v>359</v>
       </c>
       <c r="C127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D127" t="s">
         <v>235</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816A7298-0F9F-4B5D-827E-613D2FAD485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEB109A-8138-4DB1-81F7-472A69DF3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Obj!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Obj!$A$2:$H$127</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="498">
   <si>
     <t>id</t>
   </si>
@@ -640,9 +640,6 @@
     <t>68</t>
   </si>
   <si>
-    <t>fish</t>
-  </si>
-  <si>
     <t>魚</t>
   </si>
   <si>
@@ -1330,9 +1327,6 @@
     <t xml:space="preserve">Bolardo  </t>
   </si>
   <si>
-    <t xml:space="preserve">Peixe  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Árvore de Mogno  </t>
   </si>
   <si>
@@ -1496,6 +1490,33 @@
   </si>
   <si>
     <t>Roseira</t>
+  </si>
+  <si>
+    <t>EA 23.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish silhouette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silhueta de Peixe    </t>
+  </si>
+  <si>
+    <t>Telhado 8</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>EA 23.117</t>
+  </si>
+  <si>
+    <t>roof9</t>
+  </si>
+  <si>
+    <t>屋根9</t>
+  </si>
+  <si>
+    <t>Telhado 9</t>
   </si>
 </sst>
 </file>
@@ -1873,11 +1894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,10 +1941,10 @@
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
         <v>164</v>
@@ -1937,10 +1958,10 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" t="s">
         <v>102</v>
@@ -1951,53 +1972,53 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" t="s">
         <v>219</v>
       </c>
-      <c r="B5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>220</v>
-      </c>
-      <c r="E5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" t="s">
         <v>242</v>
       </c>
-      <c r="B6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>243</v>
-      </c>
-      <c r="E6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" t="s">
         <v>295</v>
       </c>
-      <c r="B7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>296</v>
-      </c>
-      <c r="E7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2005,10 +2026,10 @@
         <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
         <v>185</v>
@@ -2019,36 +2040,36 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" t="s">
         <v>255</v>
       </c>
-      <c r="B9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>256</v>
-      </c>
-      <c r="E9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" t="s">
         <v>210</v>
       </c>
-      <c r="B10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>211</v>
-      </c>
-      <c r="E10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2056,10 +2077,10 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -2073,10 +2094,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -2090,10 +2111,10 @@
         <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -2104,19 +2125,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D14" t="s">
         <v>335</v>
       </c>
-      <c r="B14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C14" t="s">
-        <v>475</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>336</v>
-      </c>
-      <c r="E14" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2124,10 +2145,10 @@
         <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D15" t="s">
         <v>149</v>
@@ -2138,36 +2159,36 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D16" t="s">
         <v>338</v>
       </c>
-      <c r="B16" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" t="s">
-        <v>488</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>339</v>
-      </c>
-      <c r="E16" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" t="s">
         <v>207</v>
       </c>
-      <c r="B17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" t="s">
-        <v>436</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>208</v>
-      </c>
-      <c r="E17" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,10 +2196,10 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -2189,404 +2210,404 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C19" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>275</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C22" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
         <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C25" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C26" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D26" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="E26" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>319</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C28" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C29" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C30" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C31" t="s">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="C32" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="D32" t="s">
-        <v>346</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
-        <v>347</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C33" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C34" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>354</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>489</v>
+        <v>390</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D42" t="s">
         <v>108</v>
@@ -2597,13 +2618,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D43" t="s">
         <v>108</v>
@@ -2614,13 +2635,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D44" t="s">
         <v>108</v>
@@ -2634,10 +2655,10 @@
         <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D45" t="s">
         <v>108</v>
@@ -2651,10 +2672,10 @@
         <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D46" t="s">
         <v>108</v>
@@ -2665,47 +2686,47 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C47" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>308</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C48" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>310</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -2716,172 +2737,172 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C52" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="D52" t="s">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C56" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C57" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C58" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2889,10 +2910,10 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -2903,336 +2924,336 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="C61" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C63" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="E63" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="B64" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="D64" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C65" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D65" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="E65" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C66" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D66" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E66" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C67" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D67" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E67" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C68" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="D68" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>328</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C69" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C70" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C73" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="D73" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="E73" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C74" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="D74" t="s">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C75" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
         <v>397</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C78" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D79" t="s">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D80" t="s">
         <v>78</v>
@@ -3243,478 +3264,478 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D81" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="B82" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C82" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C83" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E83" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C84" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C85" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="E85" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C86" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C87" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C88" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>278</v>
+      </c>
+      <c r="B89" t="s">
+        <v>356</v>
+      </c>
+      <c r="C89" t="s">
+        <v>455</v>
+      </c>
+      <c r="D89" t="s">
         <v>276</v>
       </c>
-      <c r="B89" t="s">
-        <v>369</v>
-      </c>
-      <c r="C89" t="s">
-        <v>457</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>277</v>
-      </c>
-      <c r="E89" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C90" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C91" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="D91" t="s">
-        <v>299</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="D92" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="E92" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>469</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C94" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C95" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="D95" t="s">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
-        <v>325</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="B96" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C96" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>302</v>
       </c>
       <c r="E96" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C97" t="s">
-        <v>487</v>
+        <v>408</v>
       </c>
       <c r="D97" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="E97" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C98" t="s">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="B99" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="E99" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C100" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C101" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C102" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="D102" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="E102" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C103" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D103" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E103" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C104" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="D104" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="E104" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="B105" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C105" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="D105" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="E105" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="D106" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="E106" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>342</v>
+        <v>33</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="C107" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="D107" t="s">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="E107" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="B108" t="s">
-        <v>354</v>
+        <v>489</v>
       </c>
       <c r="C108" t="s">
-        <v>390</v>
+        <v>491</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,10 +3743,10 @@
         <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D109" t="s">
         <v>69</v>
@@ -3736,36 +3757,36 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" t="s">
+        <v>379</v>
+      </c>
+      <c r="C110" t="s">
+        <v>476</v>
+      </c>
+      <c r="D110" t="s">
         <v>348</v>
       </c>
-      <c r="B110" t="s">
-        <v>380</v>
-      </c>
-      <c r="C110" t="s">
-        <v>478</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>349</v>
-      </c>
-      <c r="E110" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111" t="s">
+        <v>356</v>
+      </c>
+      <c r="C111" t="s">
+        <v>456</v>
+      </c>
+      <c r="D111" t="s">
         <v>282</v>
       </c>
-      <c r="B111" t="s">
-        <v>357</v>
-      </c>
-      <c r="C111" t="s">
-        <v>458</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>283</v>
-      </c>
-      <c r="E111" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,10 +3794,10 @@
         <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C112" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D112" t="s">
         <v>72</v>
@@ -3790,10 +3811,10 @@
         <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D113" t="s">
         <v>84</v>
@@ -3807,10 +3828,10 @@
         <v>86</v>
       </c>
       <c r="B114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C114" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D114" t="s">
         <v>87</v>
@@ -3824,10 +3845,10 @@
         <v>89</v>
       </c>
       <c r="B115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C115" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D115" t="s">
         <v>90</v>
@@ -3841,10 +3862,10 @@
         <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C116" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D116" t="s">
         <v>93</v>
@@ -3858,10 +3879,10 @@
         <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C117" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D117" t="s">
         <v>96</v>
@@ -3875,10 +3896,10 @@
         <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C118" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D118" t="s">
         <v>96</v>
@@ -3889,115 +3910,115 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" t="s">
+        <v>380</v>
+      </c>
+      <c r="C119" t="s">
+        <v>492</v>
+      </c>
+      <c r="D119" t="s">
         <v>351</v>
       </c>
-      <c r="B119" t="s">
-        <v>381</v>
-      </c>
-      <c r="C119" t="s">
-        <v>485</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>352</v>
-      </c>
-      <c r="E119" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>493</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>494</v>
       </c>
       <c r="C120" t="s">
-        <v>410</v>
+        <v>497</v>
       </c>
       <c r="D120" t="s">
-        <v>117</v>
+        <v>495</v>
       </c>
       <c r="E120" t="s">
-        <v>118</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D121" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="E121" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C122" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="D122" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E122" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D123" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E123" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C124" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D124" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="B125" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C125" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D125" t="s">
         <v>99</v>
@@ -4008,13 +4029,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B126" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D126" t="s">
         <v>99</v>
@@ -4025,25 +4046,42 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" t="s">
+        <v>403</v>
+      </c>
+      <c r="D127" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" t="s">
+        <v>358</v>
+      </c>
+      <c r="C128" t="s">
+        <v>442</v>
+      </c>
+      <c r="D128" t="s">
         <v>234</v>
       </c>
-      <c r="B127" t="s">
-        <v>359</v>
-      </c>
-      <c r="C127" t="s">
-        <v>444</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E128" t="s">
         <v>235</v>
       </c>
-      <c r="E127" t="s">
-        <v>236</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H127">
-      <sortCondition ref="C2"/>
+  <autoFilter ref="A2:H127" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H128">
+      <sortCondition ref="C2:C127"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
